--- a/percentiles_89.xlsx
+++ b/percentiles_89.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\GIC\ENIGH_1984\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB94B8C8-2586-4A45-920F-C163992F931F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>INGRESO CORRIENTE</t>
+  </si>
+  <si>
+    <t>Percentil</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +83,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +169,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +221,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,523 +414,833 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>INGRESO CORRIENTE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>2379360.490120803</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>134640.8789862906</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>216792.8444102705</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>216792.84441027051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>272676.5766023347</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>272676.57660233468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>316818.1330561306</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>316818.13305613061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>358707.7303149544</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>358707.73031495442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>388898.9940816509</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>388898.99408165092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>427560.2326476909</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>427560.23264769092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>461261.773435677</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>461261.77343567699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>491241.5775369316</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>491241.57753693161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>524791.0254707781</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>524791.02547077811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>559701.793026097</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>588684.6452007754</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>588684.64520077535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>615437.8980449415</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>615437.89804494148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>645203.2157202964</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>645203.21572029637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>672784.3178394808</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>672784.31783948082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>702010.5579721379</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>702010.55797213793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>724654.7250276074</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>746196.8724328289</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>746196.87243282888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>764709.7728946274</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>764709.77289462741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>783859.2546387828</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>783859.25463878282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>805712.7960516514</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>805712.79605165136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>827948.4661988304</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>848938.6013789693</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>848938.60137896927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>863619.9193561368</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>863619.91935613682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>883552.094404978</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>883552.09440497798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>899126.5699971664</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>918557.0893320025</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>918557.08933200245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>936853.1361294788</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>936853.13612947881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>959463.4354075242</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>959463.43540752423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>982382.998169432</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>982382.99816943204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1004102.639068257</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1004102.6390682569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>1027336.069466403</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1050697.544017023</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1050697.5440170229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1075351.479465674</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1075351.4794656739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>1100576.321004289</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1126665.645451536</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1126665.6454515359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1145557.597454769</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1145557.5974547691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>1167043.185145753</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>1187981.123813529</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1206090.056378506</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1206090.0563785059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1231163.719246466</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1231163.7192464659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1259763.989349245</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1259763.9893492451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1286700.146552482</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1286700.1465524819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>1315822.540584526</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>1341655.452292609</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>1362422.575881246</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>1390882.640936608</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>1419617.76780871</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1446208.24425802</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1446208.2442580201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>1479933.172219302</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>1506640.644376308</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1535014.908492748</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1535014.9084927479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1566298.545351525</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1566298.5453515251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1604030.490043837</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1604030.4900438371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1636008.093611301</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1636008.0936113009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1666745.177843101</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1666745.1778431011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1692859.22403549</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1692859.2240354901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1734868.880075684</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1734868.8800756841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1777774.036408187</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1777774.0364081869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1816474.518629673</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1816474.5186296729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1865510.669579798</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1865510.6695797979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1900668.66737033</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1900668.6673703301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>1934772.571025759</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1968664.84142567</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1968664.8414256701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2000328.458645492</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2000328.4586454921</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2043636.215453066</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2043636.2154530659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>2088094.829860142</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2121499.805083884</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2121499.8050838839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2167551.516619391</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2167551.5166193908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2222953.741995595</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2222953.7419955949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2279680.682558145</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2279680.6825581449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2346511.672844731</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2346511.6728447308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2400244.329149211</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2400244.3291492108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2452913.890640171</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2452913.8906401708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
         <v>2538202.992067338</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2607977.17235738</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2607977.1723573799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
         <v>2689104.39285181</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
         <v>2770302.324363844</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2857136.147332996</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2857136.1473329961</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2960052.198280458</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2960052.1982804579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>3018652.232748918</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3018652.2327489178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3099203.115036615</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3099203.1150366152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3220798.559898351</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3220798.5598983509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
         <v>3335606.108230107</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>3436966.581754453</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3548624.550982211</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3548624.5509822108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3714163.693818547</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3714163.6938185468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>3940244.474679139</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>4174384.980576802</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4389885.642216082</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>4389885.6422160817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4573960.714192251</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>4573960.7141922507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4815673.879624728</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>4815673.8796247281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5195285.560406476</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>5195285.5604064763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5571536.953202284</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>5571536.9532022839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6069370.553612459</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>6069370.5536124595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6747507.192843983</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>6747507.1928439829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>7797230.292504539</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7797230.2925045388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9355324.015807996</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>9355324.0158079956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>12058499.45054396</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>12058499.450543961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>33153489.67700095</v>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>33153489.677000951</v>
       </c>
     </row>
   </sheetData>
